--- a/Desktop/MYSARAH/PENGECAIAN/2024060015 (SAMPLE KOMPETENSI).xlsx
+++ b/Desktop/MYSARAH/PENGECAIAN/2024060015 (SAMPLE KOMPETENSI).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20339"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\MYSARAH\PENGECAIAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EFA23B6-5DBE-4E90-A2CF-F851459B1155}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8D0DDB-2084-45AE-B64E-B87B08F6CFBD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{38249C9A-01A6-4AF8-A1A8-1F534CECDBB5}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="117">
   <si>
     <t>NO. SAMPEL</t>
   </si>
@@ -892,6 +892,9 @@
       </rPr>
       <t xml:space="preserve"> S/N: 240123396</t>
     </r>
+  </si>
+  <si>
+    <t>SPL CT MAI 141024 (2024060015)</t>
   </si>
 </sst>
 </file>
@@ -1325,7 +1328,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1695,7 +1698,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="8"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3144,7 +3150,7 @@
   <dimension ref="A1:T505"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="86" zoomScaleNormal="82" zoomScalePageLayoutView="86" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:G22"/>
+      <selection activeCell="D7" sqref="D7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,44 +3169,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="150"/>
+      <c r="B1" s="151"/>
       <c r="C1" s="41"/>
-      <c r="D1" s="132">
-        <v>2024060015</v>
-      </c>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
+      <c r="D1" s="133" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
       <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="168" t="s">
+      <c r="A2" s="169" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="170"/>
+      <c r="H2" s="170"/>
+      <c r="I2" s="170"/>
       <c r="J2" s="43"/>
     </row>
     <row r="3" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="139"/>
-      <c r="C3" s="170" t="s">
+      <c r="B3" s="140"/>
+      <c r="C3" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="170"/>
+      <c r="D3" s="171"/>
       <c r="E3" s="16"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
@@ -3218,15 +3224,15 @@
       <c r="C4" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="151" t="s">
+      <c r="D4" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="152"/>
+      <c r="E4" s="152"/>
+      <c r="F4" s="152"/>
+      <c r="G4" s="152"/>
+      <c r="H4" s="152"/>
+      <c r="I4" s="152"/>
+      <c r="J4" s="153"/>
     </row>
     <row r="5" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="38" t="s">
@@ -3238,15 +3244,15 @@
       <c r="C5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="151" t="s">
+      <c r="D5" s="152" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="151"/>
-      <c r="F5" s="151"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="151"/>
-      <c r="I5" s="151"/>
-      <c r="J5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152"/>
+      <c r="J5" s="153"/>
     </row>
     <row r="6" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
@@ -3258,15 +3264,15 @@
       <c r="C6" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="151" t="s">
+      <c r="D6" s="152" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="151"/>
-      <c r="I6" s="151"/>
-      <c r="J6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="152"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
     </row>
     <row r="7" spans="1:10" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="38" t="s">
@@ -3278,15 +3284,15 @@
       <c r="C7" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="154" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="E7" s="154"/>
+      <c r="F7" s="154"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="155"/>
     </row>
     <row r="8" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="129" t="s">
@@ -3298,15 +3304,15 @@
       <c r="C8" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="158" t="s">
+      <c r="D8" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
-      <c r="G8" s="158"/>
-      <c r="H8" s="158"/>
-      <c r="I8" s="158"/>
-      <c r="J8" s="159"/>
+      <c r="E8" s="159"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="160"/>
     </row>
     <row r="9" spans="1:10" s="19" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="39" t="s">
@@ -3318,15 +3324,15 @@
       <c r="C9" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="153" t="s">
+      <c r="D9" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="153"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="154"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="155"/>
     </row>
     <row r="10" spans="1:10" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="97" t="s">
@@ -3338,19 +3344,19 @@
       <c r="C10" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="148" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="147"/>
-      <c r="J10" s="148"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="148"/>
+      <c r="G10" s="148"/>
+      <c r="H10" s="148"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="137"/>
-      <c r="B11" s="137"/>
+      <c r="A11" s="138"/>
+      <c r="B11" s="138"/>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
       <c r="E11" s="15"/>
@@ -3360,10 +3366,10 @@
       <c r="I11" s="17"/>
     </row>
     <row r="12" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="146" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="145"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
       <c r="E12" s="15"/>
@@ -3373,38 +3379,38 @@
       <c r="I12" s="17"/>
     </row>
     <row r="13" spans="1:10" s="19" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="143" t="s">
+      <c r="A13" s="144" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="162" t="s">
+      <c r="B13" s="147"/>
+      <c r="C13" s="163" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="164"/>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="143" t="s">
+      <c r="A14" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="144"/>
+      <c r="B14" s="145"/>
       <c r="C14" s="80" t="s">
         <v>78</v>
       </c>
       <c r="D14" s="114">
         <v>21.58</v>
       </c>
-      <c r="E14" s="133" t="s">
+      <c r="E14" s="134" t="s">
         <v>92</v>
       </c>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="134"/>
       <c r="I14" s="114">
         <v>1</v>
       </c>
@@ -3425,41 +3431,41 @@
       <c r="J15" s="99"/>
     </row>
     <row r="16" spans="1:10" s="21" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="166" t="s">
+      <c r="A16" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="167"/>
+      <c r="B16" s="168"/>
       <c r="C16" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="176" t="s">
+      <c r="D16" s="177" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="176"/>
-      <c r="F16" s="177" t="s">
+      <c r="E16" s="177"/>
+      <c r="F16" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="G16" s="177"/>
-      <c r="H16" s="177"/>
+      <c r="G16" s="178"/>
+      <c r="H16" s="178"/>
       <c r="I16" s="79"/>
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="1:11" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="143" t="s">
+      <c r="A17" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="B17" s="144"/>
-      <c r="C17" s="173" t="s">
+      <c r="B17" s="145"/>
+      <c r="C17" s="174" t="s">
         <v>115</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173"/>
-      <c r="F17" s="174" t="s">
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="175" t="s">
         <v>112</v>
       </c>
-      <c r="G17" s="174"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="176"/>
       <c r="J17" s="101"/>
     </row>
     <row r="18" spans="1:11" s="19" customFormat="1" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -3475,26 +3481,26 @@
       <c r="J18" s="103"/>
     </row>
     <row r="19" spans="1:11" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="143" t="s">
+      <c r="A19" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="144"/>
-      <c r="C19" s="164" t="s">
+      <c r="B19" s="145"/>
+      <c r="C19" s="165" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="165"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="165"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="165"/>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
       <c r="J19" s="105"/>
     </row>
     <row r="20" spans="1:11" s="19" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="141" t="s">
+      <c r="A20" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="142"/>
+      <c r="B20" s="143"/>
       <c r="C20" s="106" t="s">
         <v>82</v>
       </c>
@@ -3515,10 +3521,10 @@
       <c r="J20" s="107"/>
     </row>
     <row r="21" spans="1:11" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="141" t="s">
+      <c r="A21" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="142"/>
+      <c r="B21" s="143"/>
       <c r="C21" s="108" t="s">
         <v>84</v>
       </c>
@@ -3531,27 +3537,27 @@
       <c r="F21" s="113" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="156" t="s">
+      <c r="G21" s="157" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="156"/>
+      <c r="H21" s="157"/>
       <c r="I21" s="77"/>
       <c r="J21" s="109"/>
     </row>
     <row r="22" spans="1:11" s="21" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="155"/>
-      <c r="B22" s="157"/>
+      <c r="A22" s="156"/>
+      <c r="B22" s="158"/>
       <c r="C22" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="151" t="s">
+      <c r="D22" s="152" t="s">
         <v>88</v>
       </c>
-      <c r="E22" s="151"/>
-      <c r="F22" s="134">
+      <c r="E22" s="152"/>
+      <c r="F22" s="135">
         <v>35.5</v>
       </c>
-      <c r="G22" s="134"/>
+      <c r="G22" s="135"/>
       <c r="H22" s="78" t="s">
         <v>80</v>
       </c>
@@ -3559,57 +3565,57 @@
       <c r="J22" s="109"/>
     </row>
     <row r="23" spans="1:11" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="171"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="135" t="s">
+      <c r="A23" s="172"/>
+      <c r="B23" s="173"/>
+      <c r="C23" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="137"/>
+      <c r="F23" s="137"/>
+      <c r="G23" s="137"/>
+      <c r="H23" s="137"/>
+      <c r="I23" s="137"/>
       <c r="J23" s="62"/>
     </row>
     <row r="24" spans="1:11" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="155"/>
-      <c r="B24" s="157"/>
-      <c r="C24" s="155" t="s">
+      <c r="A24" s="156"/>
+      <c r="B24" s="158"/>
+      <c r="C24" s="156" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="156"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="156"/>
-      <c r="G24" s="156"/>
-      <c r="H24" s="156"/>
-      <c r="I24" s="156"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="157"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="157"/>
       <c r="J24" s="109"/>
     </row>
     <row r="25" spans="1:11" s="21" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155"/>
-      <c r="B25" s="157"/>
-      <c r="C25" s="155" t="s">
+      <c r="A25" s="156"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="156" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="156"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="156"/>
-      <c r="G25" s="156"/>
-      <c r="H25" s="156"/>
-      <c r="I25" s="156"/>
-      <c r="J25" s="157"/>
+      <c r="D25" s="157"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="157"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="157"/>
+      <c r="J25" s="158"/>
     </row>
     <row r="26" spans="1:11" s="21" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="155"/>
-      <c r="B26" s="157"/>
+      <c r="A26" s="156"/>
+      <c r="B26" s="158"/>
       <c r="C26" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="156" t="s">
+      <c r="D26" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="156"/>
+      <c r="E26" s="157"/>
       <c r="F26" s="92"/>
       <c r="G26" s="92"/>
       <c r="H26" s="77" t="s">
@@ -3631,12 +3637,12 @@
       <c r="J27" s="57"/>
     </row>
     <row r="28" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="140" t="s">
+      <c r="A28" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="B28" s="140"/>
-      <c r="C28" s="140"/>
-      <c r="D28" s="140"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="141"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="83">
         <v>30</v>
       </c>
@@ -3658,60 +3664,60 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:11" s="19" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="196" t="s">
+      <c r="A30" s="197" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="197"/>
-      <c r="C30" s="197"/>
-      <c r="D30" s="197"/>
-      <c r="E30" s="198"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="199"/>
       <c r="F30" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="G30" s="191" t="s">
+      <c r="G30" s="192" t="s">
         <v>54</v>
       </c>
-      <c r="H30" s="191"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="192"/>
+      <c r="H30" s="192"/>
+      <c r="I30" s="192"/>
+      <c r="J30" s="192"/>
+      <c r="K30" s="193"/>
     </row>
     <row r="31" spans="1:11" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="160" t="s">
+      <c r="B31" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="160"/>
-      <c r="D31" s="160"/>
-      <c r="E31" s="161"/>
+      <c r="C31" s="161"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="162"/>
       <c r="F31" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="G31" s="202" t="s">
+      <c r="G31" s="203" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="202"/>
-      <c r="I31" s="202"/>
-      <c r="J31" s="202"/>
-      <c r="K31" s="172"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="203"/>
+      <c r="K31" s="173"/>
     </row>
     <row r="32" spans="1:11" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="B32" s="160" t="s">
+      <c r="B32" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="160"/>
-      <c r="D32" s="160"/>
-      <c r="E32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="162"/>
       <c r="F32" s="93"/>
-      <c r="G32" s="209" t="s">
+      <c r="G32" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="H32" s="209"/>
+      <c r="H32" s="210"/>
       <c r="I32" s="82"/>
       <c r="J32" s="81" t="s">
         <v>71</v>
@@ -3720,83 +3726,83 @@
     </row>
     <row r="33" spans="1:11" s="14" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="89"/>
-      <c r="B33" s="178"/>
-      <c r="C33" s="178"/>
-      <c r="D33" s="178"/>
-      <c r="E33" s="179"/>
+      <c r="B33" s="179"/>
+      <c r="C33" s="179"/>
+      <c r="D33" s="179"/>
+      <c r="E33" s="180"/>
       <c r="F33" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="G33" s="178" t="s">
+      <c r="G33" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="178"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="203"/>
+      <c r="H33" s="179"/>
+      <c r="I33" s="179"/>
+      <c r="J33" s="179"/>
+      <c r="K33" s="204"/>
     </row>
     <row r="34" spans="1:11" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="155"/>
-      <c r="B34" s="156"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="156"/>
-      <c r="E34" s="218"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="157"/>
+      <c r="C34" s="157"/>
+      <c r="D34" s="157"/>
+      <c r="E34" s="219"/>
       <c r="F34" s="120" t="s">
         <v>39</v>
       </c>
-      <c r="G34" s="204" t="s">
+      <c r="G34" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="H34" s="204"/>
-      <c r="I34" s="204"/>
-      <c r="J34" s="204"/>
-      <c r="K34" s="205"/>
+      <c r="H34" s="205"/>
+      <c r="I34" s="205"/>
+      <c r="J34" s="205"/>
+      <c r="K34" s="206"/>
     </row>
     <row r="35" spans="1:11" s="21" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="155"/>
-      <c r="B35" s="156"/>
-      <c r="C35" s="156"/>
-      <c r="D35" s="156"/>
-      <c r="E35" s="218"/>
+      <c r="A35" s="156"/>
+      <c r="B35" s="157"/>
+      <c r="C35" s="157"/>
+      <c r="D35" s="157"/>
+      <c r="E35" s="219"/>
       <c r="F35" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="225" t="s">
+      <c r="G35" s="226" t="s">
         <v>56</v>
       </c>
-      <c r="H35" s="225"/>
-      <c r="I35" s="225"/>
-      <c r="J35" s="225"/>
-      <c r="K35" s="226"/>
+      <c r="H35" s="226"/>
+      <c r="I35" s="226"/>
+      <c r="J35" s="226"/>
+      <c r="K35" s="227"/>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="193"/>
-      <c r="B36" s="194"/>
-      <c r="C36" s="194"/>
-      <c r="D36" s="194"/>
-      <c r="E36" s="195"/>
+      <c r="A36" s="194"/>
+      <c r="B36" s="195"/>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="196"/>
       <c r="F36" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="G36" s="189" t="s">
+      <c r="G36" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="189"/>
-      <c r="K36" s="206"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="207"/>
     </row>
     <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="193"/>
-      <c r="B37" s="194"/>
-      <c r="C37" s="194"/>
-      <c r="D37" s="194"/>
-      <c r="E37" s="195"/>
+      <c r="A37" s="194"/>
+      <c r="B37" s="195"/>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="196"/>
       <c r="F37" s="33"/>
-      <c r="G37" s="235" t="s">
+      <c r="G37" s="236" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="235"/>
+      <c r="H37" s="236"/>
       <c r="I37" s="92"/>
       <c r="J37" s="77" t="s">
         <v>71</v>
@@ -3804,94 +3810,94 @@
       <c r="K37" s="87"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="199"/>
-      <c r="B38" s="200"/>
-      <c r="C38" s="200"/>
-      <c r="D38" s="200"/>
-      <c r="E38" s="201"/>
+      <c r="A38" s="200"/>
+      <c r="B38" s="201"/>
+      <c r="C38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="202"/>
       <c r="F38" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="G38" s="233" t="s">
+      <c r="G38" s="234" t="s">
         <v>33</v>
       </c>
-      <c r="H38" s="233"/>
-      <c r="I38" s="233"/>
-      <c r="J38" s="233"/>
-      <c r="K38" s="234"/>
+      <c r="H38" s="234"/>
+      <c r="I38" s="234"/>
+      <c r="J38" s="234"/>
+      <c r="K38" s="235"/>
     </row>
     <row r="39" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="183" t="s">
+      <c r="A39" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="B39" s="184"/>
-      <c r="C39" s="184"/>
-      <c r="D39" s="184"/>
-      <c r="E39" s="185"/>
-      <c r="F39" s="232" t="s">
+      <c r="B39" s="185"/>
+      <c r="C39" s="185"/>
+      <c r="D39" s="185"/>
+      <c r="E39" s="186"/>
+      <c r="F39" s="233" t="s">
         <v>4</v>
       </c>
-      <c r="G39" s="225"/>
-      <c r="H39" s="225"/>
-      <c r="I39" s="225"/>
-      <c r="J39" s="225"/>
-      <c r="K39" s="228"/>
+      <c r="G39" s="226"/>
+      <c r="H39" s="226"/>
+      <c r="I39" s="226"/>
+      <c r="J39" s="226"/>
+      <c r="K39" s="229"/>
     </row>
     <row r="40" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="183" t="s">
+      <c r="A40" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="B40" s="184"/>
-      <c r="C40" s="184"/>
-      <c r="D40" s="184"/>
-      <c r="E40" s="185"/>
+      <c r="B40" s="185"/>
+      <c r="C40" s="185"/>
+      <c r="D40" s="185"/>
+      <c r="E40" s="186"/>
       <c r="F40" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="G40" s="136" t="s">
+      <c r="G40" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="H40" s="136"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="227"/>
+      <c r="H40" s="137"/>
+      <c r="I40" s="137"/>
+      <c r="J40" s="137"/>
+      <c r="K40" s="228"/>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="160" t="s">
+      <c r="B41" s="161" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="160"/>
-      <c r="D41" s="160"/>
-      <c r="E41" s="161"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="161"/>
+      <c r="E41" s="162"/>
       <c r="F41" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="G41" s="189" t="s">
+      <c r="G41" s="190" t="s">
         <v>35</v>
       </c>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="189"/>
-      <c r="K41" s="190"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="190"/>
+      <c r="K41" s="191"/>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="151" t="s">
+      <c r="B42" s="152" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="151"/>
-      <c r="D42" s="151"/>
-      <c r="E42" s="152"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="153"/>
       <c r="F42" s="34"/>
-      <c r="G42" s="204" t="s">
+      <c r="G42" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="H42" s="204"/>
+      <c r="H42" s="205"/>
       <c r="I42" s="91"/>
       <c r="J42" s="75" t="s">
         <v>75</v>
@@ -3899,96 +3905,96 @@
       <c r="K42" s="76"/>
     </row>
     <row r="43" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="180" t="s">
+      <c r="A43" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="181"/>
-      <c r="C43" s="181"/>
-      <c r="D43" s="181"/>
-      <c r="E43" s="182"/>
+      <c r="B43" s="182"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="183"/>
       <c r="F43" s="122" t="s">
         <v>39</v>
       </c>
-      <c r="G43" s="189" t="s">
+      <c r="G43" s="190" t="s">
         <v>28</v>
       </c>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="189"/>
-      <c r="K43" s="190"/>
+      <c r="H43" s="190"/>
+      <c r="I43" s="190"/>
+      <c r="J43" s="190"/>
+      <c r="K43" s="191"/>
     </row>
     <row r="44" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="180" t="s">
+      <c r="A44" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
-      <c r="D44" s="181"/>
-      <c r="E44" s="182"/>
+      <c r="B44" s="182"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="183"/>
       <c r="F44" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="G44" s="229" t="s">
+      <c r="G44" s="230" t="s">
         <v>29</v>
       </c>
-      <c r="H44" s="229"/>
-      <c r="I44" s="229"/>
-      <c r="J44" s="229"/>
-      <c r="K44" s="230"/>
+      <c r="H44" s="230"/>
+      <c r="I44" s="230"/>
+      <c r="J44" s="230"/>
+      <c r="K44" s="231"/>
     </row>
     <row r="45" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="180" t="s">
+      <c r="A45" s="181" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
-      <c r="D45" s="181"/>
-      <c r="E45" s="182"/>
+      <c r="B45" s="182"/>
+      <c r="C45" s="182"/>
+      <c r="D45" s="182"/>
+      <c r="E45" s="183"/>
       <c r="F45" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="G45" s="225" t="s">
+      <c r="G45" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="H45" s="225"/>
-      <c r="I45" s="225"/>
-      <c r="J45" s="225"/>
-      <c r="K45" s="228"/>
+      <c r="H45" s="226"/>
+      <c r="I45" s="226"/>
+      <c r="J45" s="226"/>
+      <c r="K45" s="229"/>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="183" t="s">
+      <c r="A46" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="184"/>
-      <c r="C46" s="184"/>
-      <c r="D46" s="184"/>
-      <c r="E46" s="185"/>
+      <c r="B46" s="185"/>
+      <c r="C46" s="185"/>
+      <c r="D46" s="185"/>
+      <c r="E46" s="186"/>
       <c r="F46" s="123" t="s">
         <v>39</v>
       </c>
-      <c r="G46" s="202" t="s">
+      <c r="G46" s="203" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="202"/>
-      <c r="I46" s="202"/>
-      <c r="J46" s="202"/>
-      <c r="K46" s="231"/>
+      <c r="H46" s="203"/>
+      <c r="I46" s="203"/>
+      <c r="J46" s="203"/>
+      <c r="K46" s="232"/>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="B47" s="160" t="s">
+      <c r="B47" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="160"/>
-      <c r="D47" s="160"/>
-      <c r="E47" s="161"/>
+      <c r="C47" s="161"/>
+      <c r="D47" s="161"/>
+      <c r="E47" s="162"/>
       <c r="F47" s="33"/>
-      <c r="G47" s="156" t="s">
+      <c r="G47" s="157" t="s">
         <v>101</v>
       </c>
-      <c r="H47" s="156"/>
+      <c r="H47" s="157"/>
       <c r="I47" s="92"/>
       <c r="J47" s="116" t="s">
         <v>71</v>
@@ -3999,50 +4005,50 @@
       <c r="A48" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="B48" s="216" t="s">
+      <c r="B48" s="217" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="216"/>
-      <c r="D48" s="216"/>
-      <c r="E48" s="217"/>
+      <c r="C48" s="217"/>
+      <c r="D48" s="217"/>
+      <c r="E48" s="218"/>
       <c r="F48" s="97" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="207" t="s">
+      <c r="G48" s="208" t="s">
         <v>33</v>
       </c>
-      <c r="H48" s="207"/>
-      <c r="I48" s="207"/>
-      <c r="J48" s="207"/>
-      <c r="K48" s="208"/>
+      <c r="H48" s="208"/>
+      <c r="I48" s="208"/>
+      <c r="J48" s="208"/>
+      <c r="K48" s="209"/>
     </row>
     <row r="49" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="210" t="s">
+      <c r="A49" s="211" t="s">
         <v>69</v>
       </c>
-      <c r="B49" s="211"/>
-      <c r="C49" s="211"/>
-      <c r="D49" s="211"/>
-      <c r="E49" s="211"/>
-      <c r="F49" s="211"/>
-      <c r="G49" s="211"/>
-      <c r="H49" s="211"/>
-      <c r="I49" s="211"/>
-      <c r="J49" s="211"/>
-      <c r="K49" s="212"/>
+      <c r="B49" s="212"/>
+      <c r="C49" s="212"/>
+      <c r="D49" s="212"/>
+      <c r="E49" s="212"/>
+      <c r="F49" s="212"/>
+      <c r="G49" s="212"/>
+      <c r="H49" s="212"/>
+      <c r="I49" s="212"/>
+      <c r="J49" s="212"/>
+      <c r="K49" s="213"/>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A50" s="213"/>
-      <c r="B50" s="214"/>
-      <c r="C50" s="214"/>
-      <c r="D50" s="214"/>
-      <c r="E50" s="214"/>
-      <c r="F50" s="214"/>
-      <c r="G50" s="214"/>
-      <c r="H50" s="214"/>
-      <c r="I50" s="214"/>
-      <c r="J50" s="214"/>
-      <c r="K50" s="215"/>
+      <c r="A50" s="214"/>
+      <c r="B50" s="215"/>
+      <c r="C50" s="215"/>
+      <c r="D50" s="215"/>
+      <c r="E50" s="215"/>
+      <c r="F50" s="215"/>
+      <c r="G50" s="215"/>
+      <c r="H50" s="215"/>
+      <c r="I50" s="215"/>
+      <c r="J50" s="215"/>
+      <c r="K50" s="216"/>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="48"/>
@@ -4058,38 +4064,38 @@
       <c r="K51" s="48"/>
     </row>
     <row r="52" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="219" t="s">
+      <c r="A52" s="220" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="220"/>
-      <c r="C52" s="220"/>
-      <c r="D52" s="220"/>
-      <c r="E52" s="220"/>
-      <c r="F52" s="220"/>
-      <c r="G52" s="220"/>
-      <c r="H52" s="220"/>
-      <c r="I52" s="220"/>
-      <c r="J52" s="220"/>
-      <c r="K52" s="221"/>
+      <c r="B52" s="221"/>
+      <c r="C52" s="221"/>
+      <c r="D52" s="221"/>
+      <c r="E52" s="221"/>
+      <c r="F52" s="221"/>
+      <c r="G52" s="221"/>
+      <c r="H52" s="221"/>
+      <c r="I52" s="221"/>
+      <c r="J52" s="221"/>
+      <c r="K52" s="222"/>
     </row>
     <row r="53" spans="1:20" s="49" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="219" t="s">
+      <c r="A53" s="220" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="220"/>
-      <c r="C53" s="220"/>
-      <c r="D53" s="220"/>
-      <c r="E53" s="221"/>
-      <c r="F53" s="222" t="s">
+      <c r="B53" s="221"/>
+      <c r="C53" s="221"/>
+      <c r="D53" s="221"/>
+      <c r="E53" s="222"/>
+      <c r="F53" s="223" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="223"/>
-      <c r="H53" s="224"/>
-      <c r="I53" s="242" t="s">
+      <c r="G53" s="224"/>
+      <c r="H53" s="225"/>
+      <c r="I53" s="243" t="s">
         <v>8</v>
       </c>
-      <c r="J53" s="243"/>
-      <c r="K53" s="244"/>
+      <c r="J53" s="244"/>
+      <c r="K53" s="245"/>
       <c r="L53"/>
       <c r="M53"/>
       <c r="N53"/>
@@ -4101,23 +4107,23 @@
       <c r="T53"/>
     </row>
     <row r="54" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="186" t="s">
+      <c r="A54" s="187" t="s">
         <v>9</v>
       </c>
-      <c r="B54" s="187"/>
-      <c r="C54" s="187"/>
-      <c r="D54" s="187"/>
-      <c r="E54" s="188"/>
-      <c r="F54" s="248">
+      <c r="B54" s="188"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="188"/>
+      <c r="E54" s="189"/>
+      <c r="F54" s="249">
         <v>6</v>
       </c>
-      <c r="G54" s="249"/>
-      <c r="H54" s="250"/>
-      <c r="I54" s="245">
+      <c r="G54" s="250"/>
+      <c r="H54" s="251"/>
+      <c r="I54" s="246">
         <v>5</v>
       </c>
-      <c r="J54" s="246"/>
-      <c r="K54" s="247"/>
+      <c r="J54" s="247"/>
+      <c r="K54" s="248"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
@@ -4129,23 +4135,23 @@
       <c r="T54"/>
     </row>
     <row r="55" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="186" t="s">
+      <c r="A55" s="187" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="187"/>
-      <c r="C55" s="187"/>
-      <c r="D55" s="187"/>
-      <c r="E55" s="188"/>
-      <c r="F55" s="248">
+      <c r="B55" s="188"/>
+      <c r="C55" s="188"/>
+      <c r="D55" s="188"/>
+      <c r="E55" s="189"/>
+      <c r="F55" s="249">
         <v>0</v>
       </c>
-      <c r="G55" s="249"/>
-      <c r="H55" s="250"/>
-      <c r="I55" s="245" t="s">
+      <c r="G55" s="250"/>
+      <c r="H55" s="251"/>
+      <c r="I55" s="246" t="s">
         <v>103</v>
       </c>
-      <c r="J55" s="246"/>
-      <c r="K55" s="247"/>
+      <c r="J55" s="247"/>
+      <c r="K55" s="248"/>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
@@ -4157,23 +4163,23 @@
       <c r="T55"/>
     </row>
     <row r="56" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="186" t="s">
+      <c r="A56" s="187" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="187"/>
-      <c r="C56" s="187"/>
-      <c r="D56" s="187"/>
-      <c r="E56" s="188"/>
-      <c r="F56" s="248">
+      <c r="B56" s="188"/>
+      <c r="C56" s="188"/>
+      <c r="D56" s="188"/>
+      <c r="E56" s="189"/>
+      <c r="F56" s="249">
         <v>0</v>
       </c>
-      <c r="G56" s="249"/>
-      <c r="H56" s="250"/>
-      <c r="I56" s="245" t="s">
+      <c r="G56" s="250"/>
+      <c r="H56" s="251"/>
+      <c r="I56" s="246" t="s">
         <v>103</v>
       </c>
-      <c r="J56" s="246"/>
-      <c r="K56" s="247"/>
+      <c r="J56" s="247"/>
+      <c r="K56" s="248"/>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
@@ -4185,21 +4191,21 @@
       <c r="T56"/>
     </row>
     <row r="57" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="186" t="s">
+      <c r="A57" s="187" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="187"/>
-      <c r="C57" s="187"/>
-      <c r="D57" s="187"/>
-      <c r="E57" s="188"/>
-      <c r="F57" s="248">
+      <c r="B57" s="188"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="189"/>
+      <c r="F57" s="249">
         <v>0</v>
       </c>
-      <c r="G57" s="249"/>
-      <c r="H57" s="250"/>
-      <c r="I57" s="255"/>
-      <c r="J57" s="256"/>
-      <c r="K57" s="257"/>
+      <c r="G57" s="250"/>
+      <c r="H57" s="251"/>
+      <c r="I57" s="256"/>
+      <c r="J57" s="257"/>
+      <c r="K57" s="258"/>
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
@@ -4218,32 +4224,32 @@
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="260" t="s">
+      <c r="A59" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="260"/>
-      <c r="C59" s="260"/>
-      <c r="D59" s="260"/>
-      <c r="E59" s="260"/>
-      <c r="F59" s="260"/>
-      <c r="G59" s="260"/>
-      <c r="H59" s="260"/>
-      <c r="I59" s="260"/>
-      <c r="J59" s="260"/>
-      <c r="K59" s="260"/>
+      <c r="B59" s="261"/>
+      <c r="C59" s="261"/>
+      <c r="D59" s="261"/>
+      <c r="E59" s="261"/>
+      <c r="F59" s="261"/>
+      <c r="G59" s="261"/>
+      <c r="H59" s="261"/>
+      <c r="I59" s="261"/>
+      <c r="J59" s="261"/>
+      <c r="K59" s="261"/>
     </row>
     <row r="60" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="260"/>
-      <c r="B60" s="260"/>
-      <c r="C60" s="260"/>
-      <c r="D60" s="260"/>
-      <c r="E60" s="260"/>
-      <c r="F60" s="260"/>
-      <c r="G60" s="260"/>
-      <c r="H60" s="260"/>
-      <c r="I60" s="260"/>
-      <c r="J60" s="260"/>
-      <c r="K60" s="260"/>
+      <c r="A60" s="261"/>
+      <c r="B60" s="261"/>
+      <c r="C60" s="261"/>
+      <c r="D60" s="261"/>
+      <c r="E60" s="261"/>
+      <c r="F60" s="261"/>
+      <c r="G60" s="261"/>
+      <c r="H60" s="261"/>
+      <c r="I60" s="261"/>
+      <c r="J60" s="261"/>
+      <c r="K60" s="261"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
@@ -4263,18 +4269,18 @@
       <c r="F62" s="55"/>
       <c r="G62" s="55"/>
       <c r="H62" s="59"/>
-      <c r="I62" s="253" t="s">
+      <c r="I62" s="254" t="s">
         <v>93</v>
       </c>
-      <c r="J62" s="253"/>
-      <c r="K62" s="254"/>
+      <c r="J62" s="254"/>
+      <c r="K62" s="255"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="124"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
-      <c r="D63" s="259"/>
-      <c r="E63" s="259"/>
+      <c r="D63" s="260"/>
+      <c r="E63" s="260"/>
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
       <c r="H63" s="56"/>
@@ -4301,16 +4307,16 @@
         <v>111</v>
       </c>
       <c r="C65" s="8"/>
-      <c r="D65" s="258"/>
-      <c r="E65" s="258"/>
-      <c r="F65" s="258"/>
+      <c r="D65" s="259"/>
+      <c r="E65" s="259"/>
+      <c r="F65" s="259"/>
       <c r="G65" s="18"/>
       <c r="H65" s="56"/>
-      <c r="I65" s="251">
+      <c r="I65" s="252">
         <v>45579</v>
       </c>
-      <c r="J65" s="251"/>
-      <c r="K65" s="252"/>
+      <c r="J65" s="252"/>
+      <c r="K65" s="253"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="125"/>
@@ -4342,11 +4348,11 @@
       <c r="F67" s="73"/>
       <c r="G67" s="73"/>
       <c r="H67" s="74"/>
-      <c r="I67" s="239" t="s">
+      <c r="I67" s="240" t="s">
         <v>51</v>
       </c>
-      <c r="J67" s="240"/>
-      <c r="K67" s="241"/>
+      <c r="J67" s="241"/>
+      <c r="K67" s="242"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="61" t="s">
@@ -4419,11 +4425,11 @@
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
       <c r="H72" s="62"/>
-      <c r="I72" s="236" t="s">
+      <c r="I72" s="237" t="s">
         <v>52</v>
       </c>
-      <c r="J72" s="237"/>
-      <c r="K72" s="238"/>
+      <c r="J72" s="238"/>
+      <c r="K72" s="239"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="60"/>
@@ -6485,7 +6491,7 @@
       <c r="C505" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="104">
+  <mergeCells count="103">
     <mergeCell ref="I72:K72"/>
     <mergeCell ref="I67:K67"/>
     <mergeCell ref="A53:E53"/>
@@ -6548,6 +6554,13 @@
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="A49:K50"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="D8:J8"/>
     <mergeCell ref="B31:E31"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C19:I19"/>
@@ -6565,11 +6578,6 @@
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D1:G1"/>
     <mergeCell ref="E14:H14"/>
     <mergeCell ref="F22:G22"/>
     <mergeCell ref="C23:I23"/>
@@ -6583,13 +6591,10 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="D10:J10"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="A26:B26"/>
   </mergeCells>
   <pageMargins left="0.64950980392156865" right="0.7" top="0.78730620155038755" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
